--- a/1  临时/3 公式/date.xlsx
+++ b/1  临时/3 公式/date.xlsx
@@ -358,10 +358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C11"/>
+  <dimension ref="A2:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -375,8 +375,8 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <f>+INT((A2-$A$2+12)/7)</f>
-        <v>1</v>
+        <f>+INT((A2-$A$2+12)/7)-1</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -384,8 +384,8 @@
         <v>44198</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C11" si="0">+INT((A3-$A$2+12)/7)</f>
-        <v>1</v>
+        <f t="shared" ref="C3:C12" si="0">+INT((A3-$A$2+12)/7)-1</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -394,7 +394,7 @@
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -403,7 +403,7 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -412,7 +412,7 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -421,7 +421,7 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -430,7 +430,7 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -439,7 +439,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -448,7 +448,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -457,7 +457,16 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>44278</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/1  临时/3 公式/date.xlsx
+++ b/1  临时/3 公式/date.xlsx
@@ -358,10 +358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C12"/>
+  <dimension ref="A2:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -469,6 +469,24 @@
         <v>12</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>44278</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:C14" si="1">+INT((A13-$A$2+12)/7)-1</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>44334</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
